--- a/common/src/main/webapp/imports/export-李美媛-35.xlsx
+++ b/common/src/main/webapp/imports/export-李美媛-35.xlsx
@@ -1068,20 +1068,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color indexed="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1100,8 +1094,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,21 +1193,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1138,14 +1216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,85 +1231,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1253,13 +1247,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,13 +1343,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,19 +1409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,108 +1431,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1444,6 +1438,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1466,21 +1475,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1497,26 +1491,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,173 +1530,169 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2059,7 +2047,7 @@
   <dimension ref="B1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B$1:B$1048576"/>
+      <selection activeCell="E12" sqref="B1:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
@@ -2109,7 +2097,7 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2118,10 +2106,10 @@
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2133,44 +2121,44 @@
       <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="3">
         <v>89625720</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2190,7 +2178,7 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2199,10 +2187,10 @@
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2214,42 +2202,42 @@
       <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3">
         <v>22915307</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2269,7 +2257,7 @@
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2278,10 +2266,10 @@
       <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2293,44 +2281,44 @@
       <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>13940106700</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2350,7 +2338,7 @@
       <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2359,13 +2347,13 @@
       <c r="I4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -2374,42 +2362,42 @@
       <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="3">
         <v>2489860821</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2" t="s">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2" t="s">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2429,7 +2417,7 @@
       <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2438,13 +2426,13 @@
       <c r="I5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -2453,42 +2441,42 @@
       <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>89862592</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2" t="s">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AC5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2508,7 +2496,7 @@
       <c r="F6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2517,10 +2505,10 @@
       <c r="I6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>42571</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2532,42 +2520,42 @@
       <c r="N6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>89867290</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2" t="s">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AC6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2587,7 +2575,7 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2596,10 +2584,10 @@
       <c r="I7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2611,42 +2599,42 @@
       <c r="N7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="3">
         <v>89862778</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2" t="s">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AC7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2666,7 +2654,7 @@
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2675,13 +2663,13 @@
       <c r="I8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -2690,42 +2678,42 @@
       <c r="N8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3">
         <v>25642824</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2" t="s">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2" t="s">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AC8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2745,7 +2733,7 @@
       <c r="F9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2754,13 +2742,13 @@
       <c r="I9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="2" t="s">
         <v>93</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -2769,42 +2757,42 @@
       <c r="N9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
         <v>89610938</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2" t="s">
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2" t="s">
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AC9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2824,7 +2812,7 @@
       <c r="F10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2833,10 +2821,10 @@
       <c r="I10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -2848,42 +2836,42 @@
       <c r="N10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="3">
         <v>28966276</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2" t="s">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF10" s="6" t="s">
+      <c r="AC10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2903,7 +2891,7 @@
       <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2912,13 +2900,13 @@
       <c r="I11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>113</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -2927,42 +2915,42 @@
       <c r="N11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="3">
         <v>89609002</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2" t="s">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF11" s="6" t="s">
+      <c r="AC11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2982,7 +2970,7 @@
       <c r="F12" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>120</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2991,13 +2979,13 @@
       <c r="I12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="2" t="s">
         <v>123</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -3006,42 +2994,42 @@
       <c r="N12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="3">
         <v>29860320</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2" t="s">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AC12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AC12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3061,7 +3049,7 @@
       <c r="F13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3070,10 +3058,10 @@
       <c r="I13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -3085,42 +3073,42 @@
       <c r="N13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="3">
         <v>89865428</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2" t="s">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2" t="s">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AC13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF13" s="6" t="s">
+      <c r="AC13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3140,7 +3128,7 @@
       <c r="F14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3149,13 +3137,13 @@
       <c r="I14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="2" t="s">
         <v>142</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -3164,42 +3152,42 @@
       <c r="N14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="3">
         <v>89862101</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2" t="s">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AC14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AC14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3219,7 +3207,7 @@
       <c r="F15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>148</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -3228,10 +3216,10 @@
       <c r="I15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -3243,42 +3231,42 @@
       <c r="N15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="3">
         <v>89614322</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2" t="s">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2" t="s">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AC15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF15" s="6" t="s">
+      <c r="AC15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3298,7 +3286,7 @@
       <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>157</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -3307,13 +3295,13 @@
       <c r="I16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="2" t="s">
         <v>161</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -3322,42 +3310,42 @@
       <c r="N16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="3">
         <v>29866218</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2" t="s">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2" t="s">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AC16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF16" s="6" t="s">
+      <c r="AC16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3377,7 +3365,7 @@
       <c r="F17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>167</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -3386,13 +3374,13 @@
       <c r="I17" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="2" t="s">
         <v>171</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -3401,42 +3389,42 @@
       <c r="N17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="3">
         <v>89605495</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2" t="s">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2" t="s">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AC17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF17" s="6" t="s">
+      <c r="AC17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3456,7 +3444,7 @@
       <c r="F18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>176</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -3465,13 +3453,13 @@
       <c r="I18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="2" t="s">
         <v>179</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -3480,42 +3468,42 @@
       <c r="N18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="3">
         <v>89866085</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2" t="s">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2" t="s">
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AC18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF18" s="6" t="s">
+      <c r="AC18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3535,7 +3523,7 @@
       <c r="F19" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>185</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -3544,13 +3532,13 @@
       <c r="I19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="2" t="s">
         <v>188</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -3559,42 +3547,42 @@
       <c r="N19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="3">
         <v>89862075</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2" t="s">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2" t="s">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AC19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF19" s="6" t="s">
+      <c r="AC19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3614,7 +3602,7 @@
       <c r="F20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>193</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -3623,13 +3611,13 @@
       <c r="I20" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="2" t="s">
         <v>196</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -3638,42 +3626,42 @@
       <c r="N20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="3">
         <v>13066607630</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2" t="s">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2" t="s">
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AC20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF20" s="6" t="s">
+      <c r="AC20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3693,7 +3681,7 @@
       <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -3702,10 +3690,10 @@
       <c r="I21" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="2" t="s">
         <v>205</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -3717,42 +3705,42 @@
       <c r="N21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="3">
         <v>89864833</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2" t="s">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2" t="s">
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AC21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF21" s="6" t="s">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3772,7 +3760,7 @@
       <c r="F22" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>211</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -3781,13 +3769,13 @@
       <c r="I22" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="2" t="s">
         <v>215</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -3796,42 +3784,42 @@
       <c r="N22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="3">
         <v>15395050402</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2" t="s">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2" t="s">
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="AC22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF22" s="6" t="s">
+      <c r="AC22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3851,7 +3839,7 @@
       <c r="F23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -3860,10 +3848,10 @@
       <c r="I23" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="2" t="s">
         <v>225</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -3875,42 +3863,42 @@
       <c r="N23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="3">
         <v>23988488</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2" t="s">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2" t="s">
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AC23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF23" s="6" t="s">
+      <c r="AC23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3930,7 +3918,7 @@
       <c r="F24" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>232</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -3939,13 +3927,13 @@
       <c r="I24" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="2" t="s">
         <v>236</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3954,42 +3942,42 @@
       <c r="N24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="3">
         <v>2489649981</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2" t="s">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2" t="s">
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="AC24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF24" s="6" t="s">
+      <c r="AC24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4009,7 +3997,7 @@
       <c r="F25" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>243</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -4018,13 +4006,13 @@
       <c r="I25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="2" t="s">
         <v>247</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -4033,42 +4021,42 @@
       <c r="N25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="3">
         <v>89734396</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2" t="s">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2" t="s">
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AC25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF25" s="6" t="s">
+      <c r="AC25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4088,7 +4076,7 @@
       <c r="F26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>253</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -4097,13 +4085,13 @@
       <c r="I26" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="2" t="s">
         <v>257</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -4112,42 +4100,42 @@
       <c r="N26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="3">
         <v>15998115661</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2" t="s">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2" t="s">
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AC26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AC26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4167,7 +4155,7 @@
       <c r="F27" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>263</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4176,13 +4164,13 @@
       <c r="I27" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="2" t="s">
         <v>267</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -4191,42 +4179,42 @@
       <c r="N27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="3">
         <v>28284687</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2" t="s">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2" t="s">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="AC27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF27" s="6" t="s">
+      <c r="AC27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4246,17 +4234,17 @@
       <c r="F28" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>274</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="2" t="s">
         <v>276</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -4268,42 +4256,42 @@
       <c r="N28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="3">
         <v>89734408</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2" t="s">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2" t="s">
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="AC28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF28" s="6" t="s">
+      <c r="AC28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4323,7 +4311,7 @@
       <c r="F29" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>282</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -4332,13 +4320,13 @@
       <c r="I29" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="2" t="s">
         <v>286</v>
       </c>
       <c r="M29" s="2" t="s">
@@ -4347,42 +4335,42 @@
       <c r="N29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="3">
         <v>25628666</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2" t="s">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2" t="s">
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AC29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF29" s="6" t="s">
+      <c r="AC29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4402,7 +4390,7 @@
       <c r="F30" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>292</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -4411,13 +4399,13 @@
       <c r="I30" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="2" t="s">
         <v>296</v>
       </c>
       <c r="M30" s="2" t="s">
@@ -4426,42 +4414,42 @@
       <c r="N30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="3">
         <v>23881579</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2" t="s">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2" t="s">
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AC30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF30" s="6" t="s">
+      <c r="AC30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4481,7 +4469,7 @@
       <c r="F31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>303</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -4490,13 +4478,13 @@
       <c r="I31" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="2" t="s">
         <v>307</v>
       </c>
       <c r="M31" s="2" t="s">
@@ -4505,42 +4493,42 @@
       <c r="N31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="Q31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="3">
         <v>89769088</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2" t="s">
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2" t="s">
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="AC31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF31" s="6" t="s">
+      <c r="AC31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF31" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4560,7 +4548,7 @@
       <c r="F32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>313</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -4569,13 +4557,13 @@
       <c r="I32" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="2" t="s">
         <v>317</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -4584,42 +4572,42 @@
       <c r="N32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="3">
         <v>89652368</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2" t="s">
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2" t="s">
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="AC32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF32" s="6" t="s">
+      <c r="AC32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4639,7 +4627,7 @@
       <c r="F33" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>323</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -4648,13 +4636,13 @@
       <c r="I33" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="2" t="s">
         <v>327</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -4663,42 +4651,42 @@
       <c r="N33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="3">
         <v>24318836</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2" t="s">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2" t="s">
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="AC33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF33" s="6" t="s">
+      <c r="AC33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF33" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4718,20 +4706,20 @@
       <c r="F34" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>333</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="2" t="s">
         <v>336</v>
       </c>
       <c r="M34" s="2" t="s">
@@ -4740,42 +4728,42 @@
       <c r="N34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="3">
         <v>88928736</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2" t="s">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2" t="s">
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AC34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF34" s="6" t="s">
+      <c r="AC34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF34" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4795,7 +4783,7 @@
       <c r="F35" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>343</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -4804,10 +4792,10 @@
       <c r="I35" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="2" t="s">
         <v>346</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -4819,42 +4807,42 @@
       <c r="N35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="Q35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="3">
         <v>29832062</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2" t="s">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2" t="s">
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AC35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AC35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
